--- a/URS/DbLayouts/L8-遵循法令作業/JcicZ062.xlsx
+++ b/URS/DbLayouts/L8-遵循法令作業/JcicZ062.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\L8-遵循法令作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L8-遵循法令作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C84A73B5-1262-40C6-B6D1-02456CF566F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B44B9B78-65CE-46A6-A2B7-32E39D32D9D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -426,19 +426,10 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>CustIdEq</t>
-  </si>
-  <si>
     <t>CustId=</t>
   </si>
   <si>
-    <t>RcDateEq</t>
-  </si>
-  <si>
     <t>RcDate=</t>
-  </si>
-  <si>
-    <t>CustRcEq</t>
   </si>
   <si>
     <t>CustId= , AND RcDate=</t>
@@ -518,6 +509,18 @@
   <si>
     <t>SubmitKey,CustId,RcDate,ChangePayDate</t>
     <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>custIdEq</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>rcDateEq</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>custRcEq</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1088,8 +1091,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K108"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1111,7 +1114,7 @@
         <v>34</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E1" s="7"/>
       <c r="F1" s="8"/>
@@ -1136,10 +1139,10 @@
       </c>
       <c r="B3" s="20"/>
       <c r="C3" s="14" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
@@ -1283,14 +1286,14 @@
         <v>36</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E12" s="15">
         <v>3</v>
       </c>
       <c r="F12" s="14"/>
       <c r="G12" s="14" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -1311,7 +1314,7 @@
       </c>
       <c r="F13" s="14"/>
       <c r="G13" s="14" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -1391,7 +1394,7 @@
         <v>2</v>
       </c>
       <c r="G17" s="14" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
@@ -1574,7 +1577,7 @@
         <v>35</v>
       </c>
       <c r="G26" s="14" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
@@ -1597,7 +1600,7 @@
         <v>35</v>
       </c>
       <c r="G27" s="14" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
@@ -1679,7 +1682,7 @@
         <v>2</v>
       </c>
       <c r="G31" s="14" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
@@ -1725,10 +1728,10 @@
         <v>25</v>
       </c>
       <c r="B34" s="14" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D34" s="14" t="s">
         <v>20</v>
@@ -2188,7 +2191,7 @@
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -2212,65 +2215,65 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>89</v>
-      </c>
       <c r="C2" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
